--- a/downloaded_files/CMPS401_Tutorial-35873.xlsx
+++ b/downloaded_files/CMPS401_Tutorial-35873.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,15 +148,6 @@
   </x:si>
   <x:si>
     <x:t>Mariam mahrous mohamed abdelaal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفي أسامة عبدالحميد توفيق عبد الحميد نصار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Usama Abdelhameed Tawfeek Abdelhameed Nassar</x:t>
   </x:si>
   <x:si>
     <x:t>1210390</x:t>
@@ -317,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -625,8 +616,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="36.410625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="53.850625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.580625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.590625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1124,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45913.7634871528</x:v>
+        <x:v>45909.4151523958</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4151523958</x:v>
+        <x:v>45909.4148111111</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4148111111</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45909.5681069097</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1243,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.5681069097</x:v>
+        <x:v>45909.4162960648</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1269,38 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45909.4162960648</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS401_Tutorial-35873.xlsx
+++ b/downloaded_files/CMPS401_Tutorial-35873.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Anas Alaa Mohamed  Ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>1210206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>باسم اشرف محمد محمد الجلفي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>basem ashraf mohamed mohamed elgalfy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210003</x:t>
   </x:si>
   <x:si>
@@ -58,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Galal Mohamed Galal Abdelhamid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رحاب احمد عبدالباسط احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rehab Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1220246</x:t>
@@ -308,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -763,7 +781,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.4148870023</x:v>
+        <x:v>45927.4147941319</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -795,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45913.6392454051</x:v>
+        <x:v>45909.4148870023</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -827,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45913.7490788542</x:v>
+        <x:v>45927.4273076736</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -859,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4702711806</x:v>
+        <x:v>45913.6392454051</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -891,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.4151826736</x:v>
+        <x:v>45913.7490788542</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -923,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4847559375</x:v>
+        <x:v>45909.4702711806</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -955,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45916.4504661227</x:v>
+        <x:v>45909.4151826736</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -987,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45913.7802143518</x:v>
+        <x:v>45909.4847559375</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1019,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4149715278</x:v>
+        <x:v>45916.4504661227</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.5174795486</x:v>
+        <x:v>45913.7802143518</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4148990394</x:v>
+        <x:v>45909.4149715278</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4151523958</x:v>
+        <x:v>45909.5174795486</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4148111111</x:v>
+        <x:v>45909.4148990394</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45909.4151523958</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.5681069097</x:v>
+        <x:v>45909.4148111111</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1243,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4162960648</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1260,6 +1278,70 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45909.5681069097</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45909.4162960648</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS401_Tutorial-35873.xlsx
+++ b/downloaded_files/CMPS401_Tutorial-35873.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Abdel Rahman Ayman Amin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عزالدين احمد صابر الطهرى سليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ezz Eldin Ahmed Saber Eltohary Selim</x:t>
   </x:si>
   <x:si>
     <x:t>4220139</x:t>
@@ -326,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -973,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4151826736</x:v>
+        <x:v>45909.4847559375</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4847559375</x:v>
+        <x:v>45916.4504661227</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45916.4504661227</x:v>
+        <x:v>45913.7802143518</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.7802143518</x:v>
+        <x:v>45909.4149715278</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4149715278</x:v>
+        <x:v>45909.5174795486</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.5174795486</x:v>
+        <x:v>45909.4148990394</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4148990394</x:v>
+        <x:v>45909.4151523958</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4151523958</x:v>
+        <x:v>45909.4148111111</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4148111111</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45909.5681069097</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.5681069097</x:v>
+        <x:v>45909.4162960648</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1310,38 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45909.4162960648</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS401_Tutorial-35873.xlsx
+++ b/downloaded_files/CMPS401_Tutorial-35873.xlsx
@@ -84,7 +84,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1210247</x:t>
@@ -626,7 +626,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.580625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.590625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.650625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/CMPS401_Tutorial-35873.xlsx
+++ b/downloaded_files/CMPS401_Tutorial-35873.xlsx
@@ -84,7 +84,7 @@
     <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
   </x:si>
   <x:si>
-    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEQ DAKROURY</x:t>
+    <x:t>SEIFELDIN SAMEH ABDELRAHMAN SADEK DAKROURY</x:t>
   </x:si>
   <x:si>
     <x:t>1210247</x:t>
@@ -626,7 +626,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.580625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="47.650625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.330625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/CMPS401_Tutorial-35873.xlsx
+++ b/downloaded_files/CMPS401_Tutorial-35873.xlsx
@@ -120,7 +120,7 @@
     <x:t>عمرو اشرف على محمود حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>AmrAshrafAli</x:t>
+    <x:t>Amr Ashraf Ali Mahmoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210275</x:t>

--- a/downloaded_files/CMPS401_Tutorial-35873.xlsx
+++ b/downloaded_files/CMPS401_Tutorial-35873.xlsx
@@ -1307,11 +1307,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Advanced Database Systems (CMPS401) Location : 2nd floor lab 4 Time : Monday(16:19)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Advanced Database Systems (CMPS401) Location : 2nd floor lab 4 Time : Monday(16:18)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Advanced Database Systems (CMPS401) Location : 2nd floor lab 4 Time : Monday(16:19)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Advanced Database Systems (CMPS401) Location : 2nd floor lab 4 Time : Monday(16:18)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Advanced Database Systems (CMPS401) Location : 2nd floor lab 4 Time : Monday(16:19)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Advanced Database Systems (CMPS401) Location : 2nd floor lab 4 Time : Monday(16:18)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
